--- a/biology/Botanique/Rickenella/Rickenella.xlsx
+++ b/biology/Botanique/Rickenella/Rickenella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rickenella est un genre de champignons basidiomycètes de la famille des Rickenellaceae.
 Créé par Jörg Raithelhuber en 1973, le genre a été dédié au mycologue allemand Adalbert Ricken (1851-1921). Il comprend une vingtaine d'espèces, dont l'espèce-type est Rickenella fibula. Il s'agit de petits champignons souvent classés précédemment parmi les mycènes ou les omphalines.
@@ -512,7 +524,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Rickenella péroné
  Rickenella mellea
@@ -544,10 +558,12 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Référence Index Fungorum : Rickenella  (+ liste espèces) (+ MycoBank)
-K.-H. Larsson, et al., « Hymenochaetales: a molecular phylogeny for the hymenochaetoid clade », Mycologia, vol. 98, no 6 (2006 [2007]), p. 926-936. DOI 10.3852/mycologia.98.6.926
+K.-H. Larsson, et al., « Hymenochaetales: a molecular phylogeny for the hymenochaetoid clade », Mycologia, vol. 98, no 6 (2006 ), p. 926-936. DOI 10.3852/mycologia.98.6.926
 Sur les autres projets Wikimedia :
 Rickenella, sur Wikimedia CommonsRickenella, sur Wikispecies
  Portail de la mycologie                     </t>
